--- a/Resources/2003/Basic_Percentile_2003.xlsx
+++ b/Resources/2003/Basic_Percentile_2003.xlsx
@@ -1351,7 +1351,7 @@
     <t>Paul Pierce</t>
   </si>
   <si>
-    <t>Tracy McGrady*</t>
+    <t>Tracy McGrady</t>
   </si>
   <si>
     <t>Shawn Marion</t>
@@ -1366,7 +1366,7 @@
     <t>Elton Brand</t>
   </si>
   <si>
-    <t>Karl Malone*</t>
+    <t>Karl Malone</t>
   </si>
   <si>
     <t>Tim Duncan</t>
@@ -1378,7 +1378,7 @@
     <t>Antoine Walker</t>
   </si>
   <si>
-    <t>Jason Kidd*</t>
+    <t>Jason Kidd</t>
   </si>
   <si>
     <t>Jermaine O'Neal</t>
@@ -1387,7 +1387,7 @@
     <t>Kenyon Martin</t>
   </si>
   <si>
-    <t>Michael Jordan*</t>
+    <t>Michael Jordan</t>
   </si>
   <si>
     <t>Metta World Peace</t>
@@ -1408,7 +1408,7 @@
     <t>Donyell Marshall</t>
   </si>
   <si>
-    <t>Gary Payton*</t>
+    <t>Gary Payton</t>
   </si>
   <si>
     <t>Kurt Thomas</t>
@@ -1432,7 +1432,7 @@
     <t>Ben Wallace</t>
   </si>
   <si>
-    <t>Ray Allen*</t>
+    <t>Ray Allen</t>
   </si>
   <si>
     <t>Nene Hilario</t>
@@ -1441,7 +1441,7 @@
     <t>Juwan Howard</t>
   </si>
   <si>
-    <t>Grant Hill*</t>
+    <t>Grant Hill</t>
   </si>
   <si>
     <t>Clifford Robinson</t>
@@ -1456,7 +1456,7 @@
     <t>Richard Jefferson</t>
   </si>
   <si>
-    <t>Shaquille O'Neal*</t>
+    <t>Shaquille O'Neal</t>
   </si>
   <si>
     <t>Rashard Lewis</t>
@@ -1483,7 +1483,7 @@
     <t>Darius Miles</t>
   </si>
   <si>
-    <t>Allen Iverson*</t>
+    <t>Allen Iverson</t>
   </si>
   <si>
     <t>P.J. Brown</t>
@@ -1492,7 +1492,7 @@
     <t>Jamal Mashburn</t>
   </si>
   <si>
-    <t>Scottie Pippen*</t>
+    <t>Scottie Pippen</t>
   </si>
   <si>
     <t>Toni Kukoc</t>
@@ -1564,13 +1564,13 @@
     <t>Morris Peterson</t>
   </si>
   <si>
-    <t>Yao Ming*</t>
+    <t>Yao Ming</t>
   </si>
   <si>
     <t>Eric Snow</t>
   </si>
   <si>
-    <t>David Robinson*</t>
+    <t>David Robinson</t>
   </si>
   <si>
     <t>Theo Ratliff</t>
@@ -1633,7 +1633,7 @@
     <t>James Posey</t>
   </si>
   <si>
-    <t>John Stockton*</t>
+    <t>John Stockton</t>
   </si>
   <si>
     <t>Eddie Griffin</t>
@@ -1678,7 +1678,7 @@
     <t>Aaron McKie</t>
   </si>
   <si>
-    <t>Steve Nash*</t>
+    <t>Steve Nash</t>
   </si>
   <si>
     <t>Michael Redd</t>
@@ -1708,10 +1708,10 @@
     <t>Vincent Yarbrough</t>
   </si>
   <si>
-    <t>Dikembe Mutombo*</t>
-  </si>
-  <si>
-    <t>Arvydas Sabonis*</t>
+    <t>Dikembe Mutombo</t>
+  </si>
+  <si>
+    <t>Arvydas Sabonis</t>
   </si>
   <si>
     <t>Vladimir Radmanovic</t>
@@ -1903,7 +1903,7 @@
     <t>Joe Smith</t>
   </si>
   <si>
-    <t>Reggie Miller*</t>
+    <t>Reggie Miller</t>
   </si>
   <si>
     <t>Milt Palacio</t>
